--- a/evaluation/results/isolation_forest/augmented/noise_2/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/noise_2/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7303370786516854</v>
+        <v>0.5908239700374532</v>
       </c>
       <c r="C2">
-        <v>0.9522058823529411</v>
+        <v>0.552319309600863</v>
       </c>
       <c r="D2">
-        <v>0.4850187265917603</v>
+        <v>0.9588014981273408</v>
       </c>
       <c r="E2">
-        <v>0.6426799007444168</v>
+        <v>0.7008898015058179</v>
       </c>
       <c r="F2">
-        <v>0.5377906976744186</v>
+        <v>0.8357819131570355</v>
       </c>
       <c r="G2">
-        <v>0.4943473792394656</v>
+        <v>0.9324087693493031</v>
       </c>
       <c r="H2">
-        <v>0.7303370786516854</v>
+        <v>0.7935656272356184</v>
       </c>
       <c r="I2">
-        <v>259</v>
+        <v>512</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="K2">
-        <v>521</v>
+        <v>119</v>
       </c>
       <c r="L2">
-        <v>275</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6545226130653267</v>
+        <v>0.8439716312056738</v>
       </c>
       <c r="C2">
-        <v>0.9756554307116105</v>
+        <v>0.2228464419475655</v>
       </c>
       <c r="D2">
-        <v>0.7834586466165413</v>
+        <v>0.3525925925925926</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.9522058823529411</v>
+        <v>0.552319309600863</v>
       </c>
       <c r="C3">
-        <v>0.4850187265917603</v>
+        <v>0.9588014981273408</v>
       </c>
       <c r="D3">
-        <v>0.6426799007444168</v>
+        <v>0.7008898015058179</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7303370786516854</v>
+        <v>0.5908239700374532</v>
       </c>
       <c r="C4">
-        <v>0.7303370786516854</v>
+        <v>0.5908239700374532</v>
       </c>
       <c r="D4">
-        <v>0.7303370786516854</v>
+        <v>0.5908239700374532</v>
       </c>
       <c r="E4">
-        <v>0.7303370786516854</v>
+        <v>0.5908239700374532</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.8033642477091338</v>
+        <v>0.6981454704032684</v>
       </c>
       <c r="C5">
-        <v>0.7303370786516854</v>
+        <v>0.5908239700374531</v>
       </c>
       <c r="D5">
-        <v>0.7130692736804791</v>
+        <v>0.5267411970492053</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.8033642477091339</v>
+        <v>0.6981454704032684</v>
       </c>
       <c r="C6">
-        <v>0.7303370786516854</v>
+        <v>0.5908239700374532</v>
       </c>
       <c r="D6">
-        <v>0.713069273680479</v>
+        <v>0.5267411970492053</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>521</v>
+        <v>119</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>259</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
